--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N2">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P2">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q2">
-        <v>21.9584486408776</v>
+        <v>36.58596594342801</v>
       </c>
       <c r="R2">
-        <v>21.9584486408776</v>
+        <v>329.273693490852</v>
       </c>
       <c r="S2">
-        <v>0.01166478447511504</v>
+        <v>0.0123479589921367</v>
       </c>
       <c r="T2">
-        <v>0.01166478447511504</v>
+        <v>0.01340892975299967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.412828713565324</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N3">
-        <v>0.412828713565324</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O3">
-        <v>0.1655762211154184</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P3">
-        <v>0.1655762211154184</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q3">
-        <v>4.357254718188485</v>
+        <v>0.3853879151466666</v>
       </c>
       <c r="R3">
-        <v>4.357254718188485</v>
+        <v>3.46849123632</v>
       </c>
       <c r="S3">
-        <v>0.002314664301749845</v>
+        <v>0.0001300704805677249</v>
       </c>
       <c r="T3">
-        <v>0.002314664301749845</v>
+        <v>0.0001412464957149756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>140.081771352162</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>140.081771352162</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.1855361836944317</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.1855361836944317</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.08045631724567</v>
+        <v>0.509813</v>
       </c>
       <c r="N4">
-        <v>2.08045631724567</v>
+        <v>1.019626</v>
       </c>
       <c r="O4">
-        <v>0.8344237788845816</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P4">
-        <v>0.8344237788845816</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q4">
-        <v>291.434006140569</v>
+        <v>8.069924802217999</v>
       </c>
       <c r="R4">
-        <v>291.434006140569</v>
+        <v>48.419548813308</v>
       </c>
       <c r="S4">
-        <v>0.1548158035181316</v>
+        <v>0.002723642739992067</v>
       </c>
       <c r="T4">
-        <v>0.1548158035181316</v>
+        <v>0.00197177710076503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H5">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I5">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J5">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412828713565324</v>
+        <v>2.311298</v>
       </c>
       <c r="N5">
-        <v>0.412828713565324</v>
+        <v>6.933894</v>
       </c>
       <c r="O5">
-        <v>0.1655762211154184</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P5">
-        <v>0.1655762211154184</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q5">
-        <v>57.8297774612649</v>
+        <v>359.4077380949221</v>
       </c>
       <c r="R5">
-        <v>57.8297774612649</v>
+        <v>3234.669642854298</v>
       </c>
       <c r="S5">
-        <v>0.03072038017630011</v>
+        <v>0.1213020319954106</v>
       </c>
       <c r="T5">
-        <v>0.03072038017630011</v>
+        <v>0.1317246378092419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.497709563478</v>
+        <v>155.500389</v>
       </c>
       <c r="H6">
-        <v>154.497709563478</v>
+        <v>466.501167</v>
       </c>
       <c r="I6">
-        <v>0.2046298754309405</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J6">
-        <v>0.2046298754309405</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.08045631724567</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N6">
-        <v>2.08045631724567</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O6">
-        <v>0.8344237788845816</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P6">
-        <v>0.8344237788845816</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q6">
-        <v>321.4257358613246</v>
+        <v>3.78591613752</v>
       </c>
       <c r="R6">
-        <v>321.4257358613246</v>
+        <v>34.07324523768</v>
       </c>
       <c r="S6">
-        <v>0.1707480339297666</v>
+        <v>0.001277766925330094</v>
       </c>
       <c r="T6">
-        <v>0.1707480339297666</v>
+        <v>0.001387556190733089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.497709563478</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>154.497709563478</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.2046298754309405</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.2046298754309405</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.412828713565324</v>
+        <v>0.509813</v>
       </c>
       <c r="N7">
-        <v>0.412828713565324</v>
+        <v>1.019626</v>
       </c>
       <c r="O7">
-        <v>0.1655762211154184</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P7">
-        <v>0.1655762211154184</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q7">
-        <v>63.78109068787968</v>
+        <v>79.276119817257</v>
       </c>
       <c r="R7">
-        <v>63.78109068787968</v>
+        <v>475.656718903542</v>
       </c>
       <c r="S7">
-        <v>0.03388184150117395</v>
+        <v>0.02675611402669678</v>
       </c>
       <c r="T7">
-        <v>0.03388184150117395</v>
+        <v>0.01937004885723463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>396.600699876961</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H8">
-        <v>396.600699876961</v>
+        <v>537.358117</v>
       </c>
       <c r="I8">
-        <v>0.525291617856004</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J8">
-        <v>0.525291617856004</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N8">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P8">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q8">
-        <v>825.1104314830776</v>
+        <v>413.9982470352887</v>
       </c>
       <c r="R8">
-        <v>825.1104314830776</v>
+        <v>3725.984223317598</v>
       </c>
       <c r="S8">
-        <v>0.4383158167878024</v>
+        <v>0.1397266204509357</v>
       </c>
       <c r="T8">
-        <v>0.4383158167878024</v>
+        <v>0.1517323178222215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>396.600699876961</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H9">
-        <v>396.600699876961</v>
+        <v>537.358117</v>
       </c>
       <c r="I9">
-        <v>0.525291617856004</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J9">
-        <v>0.525291617856004</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.412828713565324</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N9">
-        <v>0.412828713565324</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O9">
-        <v>0.1655762211154184</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P9">
-        <v>0.1655762211154184</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q9">
-        <v>163.728156729313</v>
+        <v>4.360959651742222</v>
       </c>
       <c r="R9">
-        <v>163.728156729313</v>
+        <v>39.24863686568</v>
       </c>
       <c r="S9">
-        <v>0.0869758010682016</v>
+        <v>0.001471847183954116</v>
       </c>
       <c r="T9">
-        <v>0.0869758010682016</v>
+        <v>0.001598312361529474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.2757126866682</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H10">
-        <v>53.2757126866682</v>
+        <v>537.358117</v>
       </c>
       <c r="I10">
-        <v>0.07056287424175893</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J10">
-        <v>0.07056287424175893</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.08045631724567</v>
+        <v>0.509813</v>
       </c>
       <c r="N10">
-        <v>2.08045631724567</v>
+        <v>1.019626</v>
       </c>
       <c r="O10">
-        <v>0.8344237788845816</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P10">
-        <v>0.8344237788845816</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q10">
-        <v>110.8377930147442</v>
+        <v>91.31738456737367</v>
       </c>
       <c r="R10">
-        <v>110.8377930147442</v>
+        <v>547.904307404242</v>
       </c>
       <c r="S10">
-        <v>0.058879340173766</v>
+        <v>0.03082010521877874</v>
       </c>
       <c r="T10">
-        <v>0.058879340173766</v>
+        <v>0.02231216922147936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H11">
+        <v>1879.118438</v>
+      </c>
+      <c r="I11">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J11">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.311298</v>
+      </c>
+      <c r="N11">
+        <v>6.933894</v>
+      </c>
+      <c r="O11">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P11">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q11">
+        <v>1447.734229170841</v>
+      </c>
+      <c r="R11">
+        <v>13029.60806253757</v>
+      </c>
+      <c r="S11">
+        <v>0.4886180378825116</v>
+      </c>
+      <c r="T11">
+        <v>0.5306014500199917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H12">
+        <v>1879.118438</v>
+      </c>
+      <c r="I12">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J12">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P12">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q12">
+        <v>15.25009007905778</v>
+      </c>
+      <c r="R12">
+        <v>137.25081071152</v>
+      </c>
+      <c r="S12">
+        <v>0.005146986886003541</v>
+      </c>
+      <c r="T12">
+        <v>0.005589230223228129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>53.2757126866682</v>
-      </c>
-      <c r="H11">
-        <v>53.2757126866682</v>
-      </c>
-      <c r="I11">
-        <v>0.07056287424175893</v>
-      </c>
-      <c r="J11">
-        <v>0.07056287424175893</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="N11">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="O11">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="P11">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="Q11">
-        <v>21.99374393271304</v>
-      </c>
-      <c r="R11">
-        <v>21.99374393271304</v>
-      </c>
-      <c r="S11">
-        <v>0.01168353406799294</v>
-      </c>
-      <c r="T11">
-        <v>0.01168353406799294</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H13">
+        <v>1879.118438</v>
+      </c>
+      <c r="I13">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J13">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.509813</v>
+      </c>
+      <c r="N13">
+        <v>1.019626</v>
+      </c>
+      <c r="O13">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P13">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q13">
+        <v>319.3330027440313</v>
+      </c>
+      <c r="R13">
+        <v>1915.998016464188</v>
+      </c>
+      <c r="S13">
+        <v>0.1077765946870533</v>
+      </c>
+      <c r="T13">
+        <v>0.07802470503271092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H14">
+        <v>128.915001</v>
+      </c>
+      <c r="I14">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J14">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.311298</v>
+      </c>
+      <c r="N14">
+        <v>6.933894</v>
+      </c>
+      <c r="O14">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P14">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q14">
+        <v>148.980491990649</v>
+      </c>
+      <c r="R14">
+        <v>893.882951943894</v>
+      </c>
+      <c r="S14">
+        <v>0.05028171207980187</v>
+      </c>
+      <c r="T14">
+        <v>0.03640137049196932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H15">
+        <v>128.915001</v>
+      </c>
+      <c r="I15">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J15">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P15">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q15">
+        <v>1.56932527884</v>
+      </c>
+      <c r="R15">
+        <v>9.415951673039999</v>
+      </c>
+      <c r="S15">
+        <v>0.0005296556668314699</v>
+      </c>
+      <c r="T15">
+        <v>0.0003834434303053145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H16">
+        <v>128.915001</v>
+      </c>
+      <c r="I16">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J16">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.509813</v>
+      </c>
+      <c r="N16">
+        <v>1.019626</v>
+      </c>
+      <c r="O16">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P16">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q16">
+        <v>32.8612717024065</v>
+      </c>
+      <c r="R16">
+        <v>131.445086809626</v>
+      </c>
+      <c r="S16">
+        <v>0.01109085478399584</v>
+      </c>
+      <c r="T16">
+        <v>0.005352805189875229</v>
       </c>
     </row>
   </sheetData>
